--- a/Daily_Status.xlsx
+++ b/Daily_Status.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>DATE</t>
   </si>
@@ -49,6 +49,24 @@
   </si>
   <si>
     <t>Still have to perfect with topics</t>
+  </si>
+  <si>
+    <t>02/11/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gone through continuation concept of video module </t>
+  </si>
+  <si>
+    <t>discussed the below topics with my teammate Akshay Hegde,surendra</t>
+  </si>
+  <si>
+    <t>video upscaling,video down scaling,Macro block,AV sync</t>
+  </si>
+  <si>
+    <t>updating my notes</t>
+  </si>
+  <si>
+    <t>revise and visualize basics once</t>
   </si>
 </sst>
 </file>
@@ -390,7 +408,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -444,9 +462,29 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="37.9" customHeight="1"/>
-    <row r="6" spans="1:4" ht="45.6" customHeight="1"/>
+    <row r="5" spans="1:4" ht="37.9" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45.6" customHeight="1">
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="7" spans="1:4" ht="46.9" customHeight="1">
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:4" ht="37.15" customHeight="1">

--- a/Daily_Status.xlsx
+++ b/Daily_Status.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>DATE</t>
   </si>
@@ -67,6 +67,45 @@
   </si>
   <si>
     <t>revise and visualize basics once</t>
+  </si>
+  <si>
+    <t>03/11/2021</t>
+  </si>
+  <si>
+    <t>gone through ffmpeg concept</t>
+  </si>
+  <si>
+    <t>video to images conversion and viceversa</t>
+  </si>
+  <si>
+    <t>discussed with my teammates regarding the topics</t>
+  </si>
+  <si>
+    <t>04/11/2021</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>05/11/2021</t>
+  </si>
+  <si>
+    <t>gone through V$L2 structure</t>
+  </si>
+  <si>
+    <t>implementation &amp; application of v4L2</t>
+  </si>
+  <si>
+    <t>Revised ffmpeg and few ds topics</t>
+  </si>
+  <si>
+    <t>08/11/2021</t>
+  </si>
+  <si>
+    <t>solved the problem in VM for installing V4L2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gone through ioctl call used in V4L2</t>
   </si>
 </sst>
 </file>
@@ -407,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -488,20 +527,83 @@
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:4" ht="37.15" customHeight="1">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="54.75" customHeight="1">
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="48" customHeight="1">
-      <c r="B11" s="5"/>
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:4" ht="54.75" customHeight="1">
-      <c r="B12" s="5"/>
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="18" spans="5:5" ht="108" customHeight="1"/>
     <row r="21" spans="5:5" ht="12.95" customHeight="1"/>

--- a/Daily_Status.xlsx
+++ b/Daily_Status.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>DATE</t>
   </si>
@@ -106,6 +106,18 @@
   </si>
   <si>
     <t xml:space="preserve"> gone through ioctl call used in V4L2</t>
+  </si>
+  <si>
+    <t>09/11/2021</t>
+  </si>
+  <si>
+    <t>gone through testapp programs</t>
+  </si>
+  <si>
+    <t>discuss some doubts arraised in testapps with my teammates</t>
+  </si>
+  <si>
+    <t>need to go through the structure members in detail</t>
   </si>
 </sst>
 </file>
@@ -447,7 +459,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -605,12 +617,30 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="5:5" ht="108" customHeight="1"/>
-    <row r="21" spans="5:5" ht="12.95" customHeight="1"/>
-    <row r="24" spans="5:5">
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="108" customHeight="1">
+      <c r="B18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="12.95" customHeight="1"/>
+    <row r="24" spans="1:5">
       <c r="E24" s="2"/>
     </row>
-    <row r="30" spans="5:5" ht="42.95" customHeight="1"/>
+    <row r="30" spans="1:5" ht="42.95" customHeight="1"/>
     <row r="33" ht="54" customHeight="1"/>
     <row r="38" ht="33" customHeight="1"/>
   </sheetData>

--- a/Daily_Status.xlsx
+++ b/Daily_Status.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>DATE</t>
   </si>
@@ -118,6 +118,24 @@
   </si>
   <si>
     <t>need to go through the structure members in detail</t>
+  </si>
+  <si>
+    <t>10/11/2021</t>
+  </si>
+  <si>
+    <t>revised previous testapp</t>
+  </si>
+  <si>
+    <t>gone through testapp3 and discussed the programs</t>
+  </si>
+  <si>
+    <t>have a codewalk session with my teamates</t>
+  </si>
+  <si>
+    <t>revise all the topics</t>
+  </si>
+  <si>
+    <t>just look up the testapp4 program</t>
   </si>
 </sst>
 </file>
@@ -458,8 +476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -636,7 +654,35 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="12.95" customHeight="1"/>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="B20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="12.95" customHeight="1">
+      <c r="B21" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="24" spans="1:5">
       <c r="E24" s="2"/>
     </row>
